--- a/srcript/reg_tab/csr_excel/table_csr_excel/icap_ifc_table.xlsx
+++ b/srcript/reg_tab/csr_excel/table_csr_excel/icap_ifc_table.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="stmc_config_t" sheetId="26" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="vislice_tcam_t_12" sheetId="33" r:id="rId20"/>
     <sheet name="vislice_tcam_t_14" sheetId="34" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -2794,7 +2794,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -3207,6 +3207,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3226,7 +3294,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -3261,7 +3329,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3293,10 +3361,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3328,7 +3395,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3504,7 +3570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -3578,7 +3644,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="121.5">
+    <row r="4" spans="1:9" ht="27">
       <c r="A4" s="15" t="s">
         <v>89</v>
       </c>
@@ -3613,7 +3679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -3735,7 +3801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -3858,14 +3924,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A2:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -3981,14 +4047,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A2:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -4120,7 +4186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -4693,7 +4759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -5184,7 +5250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -5675,7 +5741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -6166,7 +6232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -6657,7 +6723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -7148,7 +7214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -7251,7 +7317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -7742,7 +7808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -8233,13 +8299,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A2:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -8358,7 +8424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -8479,7 +8545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -8600,7 +8666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -8700,7 +8766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -8801,7 +8867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -8902,7 +8968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
